--- a/Sprint.xlsx
+++ b/Sprint.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14295" windowHeight="4620" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14292" windowHeight="4620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Login Page</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>© atpl</t>
+  </si>
+  <si>
+    <t>Data Reading Controller</t>
+  </si>
+  <si>
+    <t>TextData To DaySheet Converter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,10 +227,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -233,6 +239,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -345,6 +357,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,21 +533,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
@@ -542,13 +555,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -556,7 +569,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -564,13 +577,13 @@
       <c r="D7" s="1"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
@@ -578,13 +591,13 @@
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -592,13 +605,13 @@
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -606,7 +619,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -618,16 +631,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -642,7 +655,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -659,7 +672,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -682,8 +695,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="24" spans="1:13">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -698,17 +711,17 @@
       <c r="L24" s="3"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -725,43 +738,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
